--- a/REGULAR/RE-ENCODE/DELA CRUZ SHEILA.xlsx
+++ b/REGULAR/RE-ENCODE/DELA CRUZ SHEILA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1BBD4-80C4-42D8-91D5-EB38BD815E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC988C-2111-455D-8792-572A505FC02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>3/28,29,30/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1312,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3887,7 +3890,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3981,6 +3984,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4002,6 +4008,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>145.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
